--- a/short video_NewQoE (version 1).xlsx
+++ b/short video_NewQoE (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Lab\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\FIL_lab\A_DUC\Short_clip_journal\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A77EE7-7169-4A97-B620-E6DA6B9E066A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F8351-0494-48E8-A4BC-ED5FFCE74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="4" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="4515" yWindow="3030" windowWidth="21600" windowHeight="11235" firstSheet="6" activeTab="14" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="Rebuf" sheetId="25" r:id="rId12"/>
     <sheet name="Waste" sheetId="27" r:id="rId13"/>
     <sheet name="Smooth" sheetId="29" r:id="rId14"/>
+    <sheet name="Time run" sheetId="30" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="146">
   <si>
     <t>Fix B</t>
   </si>
@@ -444,10 +445,52 @@
     <t>MPC=5</t>
   </si>
   <si>
-    <t>N</t>
+    <t>S=100</t>
   </si>
   <si>
-    <t>S</t>
+    <t>S=250</t>
+  </si>
+  <si>
+    <t>s=750</t>
+  </si>
+  <si>
+    <t>s=1000</t>
+  </si>
+  <si>
+    <t>MPC=2</t>
+  </si>
+  <si>
+    <t>N=0.9</t>
+  </si>
+  <si>
+    <t>N=0.8</t>
+  </si>
+  <si>
+    <t>N=0.6</t>
+  </si>
+  <si>
+    <t>s=500</t>
+  </si>
+  <si>
+    <t>N=0.4</t>
+  </si>
+  <si>
+    <t>N=0.2</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>QoE-W</t>
+  </si>
+  <si>
+    <t>M=15, MPC=2, S=500, N=0.8.</t>
+  </si>
+  <si>
+    <t>Meidum</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -495,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -503,11 +546,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -516,6 +730,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -35041,16 +35268,16 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -35076,7 +35303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -35102,7 +35329,7 @@
         <v>12.400029399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -35128,7 +35355,7 @@
         <v>13457863.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -35154,7 +35381,7 @@
         <v>72.553984999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -35180,7 +35407,7 @@
         <v>3696.1902500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -35206,7 +35433,7 @@
         <v>1.31345402910898</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -35232,7 +35459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -35258,7 +35485,7 @@
         <v>-5.9809045999999899</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -35284,7 +35511,7 @@
         <v>8958526.1500000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -35310,7 +35537,7 @@
         <v>32.373199999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -35336,7 +35563,7 @@
         <v>2909.2682</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -35362,7 +35589,7 @@
         <v>1.2637557685481</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -35388,7 +35615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -35414,7 +35641,7 @@
         <v>-11.717597899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -35440,7 +35667,7 @@
         <v>7007740.0999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -35466,7 +35693,7 @@
         <v>18.6258625</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -35492,7 +35719,7 @@
         <v>2475.1986000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -35518,7 +35745,7 @@
         <v>1.27203881197491</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -35544,7 +35771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -35570,7 +35797,7 @@
         <v>-12.5949740999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -35596,7 +35823,7 @@
         <v>9616830.4000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -35622,7 +35849,7 @@
         <v>30.322347499999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -35648,7 +35875,7 @@
         <v>2806.8782500000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -35674,7 +35901,7 @@
         <v>1.27795527156549</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>42.00813124999997</v>
@@ -35712,20 +35939,20 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -35769,7 +35996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -35820,7 +36047,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -35871,7 +36098,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -35922,7 +36149,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -35973,7 +36200,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -36017,7 +36244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -36065,7 +36292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -36127,17 +36354,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -36181,7 +36408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -36232,7 +36459,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -36283,7 +36510,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -36334,7 +36561,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -36385,7 +36612,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -36429,7 +36656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -36471,7 +36698,7 @@
         <v>111.00048750000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -36533,17 +36760,17 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -36587,7 +36814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -36638,7 +36865,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -36689,7 +36916,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -36740,7 +36967,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -36791,7 +37018,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -36835,7 +37062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -36877,7 +37104,7 @@
         <v>8.7814137500000005</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -36939,17 +37166,17 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -36993,7 +37220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -37044,7 +37271,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -37095,7 +37322,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -37146,7 +37373,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -37197,7 +37424,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -37241,7 +37468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -37283,7 +37510,7 @@
         <v>18.80857383</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -37346,17 +37573,17 @@
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -37400,7 +37627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -37451,7 +37678,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -37502,7 +37729,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -37553,7 +37780,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -37604,7 +37831,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -37648,7 +37875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -37690,7 +37917,7 @@
         <v>8.2836499999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -37741,6 +37968,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B36B554-3C03-402F-AB4D-14B565240528}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -37752,16 +38050,16 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -37784,7 +38082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -37807,7 +38105,7 @@
         <v>19.326067099999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -37830,7 +38128,7 @@
         <v>12226531.35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -37853,7 +38151,7 @@
         <v>72.254692500000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -37876,7 +38174,7 @@
         <v>2459.7737499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -37899,7 +38197,7 @@
         <v>1.25962447656355</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -37922,7 +38220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -37945,7 +38243,7 @@
         <v>14.442761900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -37968,7 +38266,7 @@
         <v>9606625.1500000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -37991,7 +38289,7 @@
         <v>56.3517624999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -38014,7 +38312,7 @@
         <v>2192.4892999999902</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -38037,7 +38335,7 @@
         <v>1.23514115898959</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -38060,7 +38358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -38083,7 +38381,7 @@
         <v>11.2015174</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -38106,7 +38404,7 @@
         <v>8311325.6500000004</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -38129,7 +38427,7 @@
         <v>46.591819999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -38152,7 +38450,7 @@
         <v>1709.25755</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -38175,7 +38473,7 @@
         <v>1.22416587869782</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -38198,7 +38496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -38221,7 +38519,7 @@
         <v>0.71796760000000803</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -38244,7 +38542,7 @@
         <v>9745886.8499999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -38267,7 +38565,7 @@
         <v>42.524014999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -38290,7 +38588,7 @@
         <v>1915.87105</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -38313,7 +38611,7 @@
         <v>1.2258543833580899</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>61.762774374999701</v>
@@ -38354,16 +38652,16 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -38386,7 +38684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -38409,7 +38707,7 @@
         <v>37.641777299999802</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -38432,7 +38730,7 @@
         <v>19157603.800000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -38455,7 +38753,7 @@
         <v>119.7596925</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -38478,7 +38776,7 @@
         <v>3036.1089499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -38501,7 +38799,7 @@
         <v>1.2147242183410201</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -38524,7 +38822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -38547,7 +38845,7 @@
         <v>22.510033400000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -38570,7 +38868,7 @@
         <v>14041770.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -38593,7 +38891,7 @@
         <v>82.242114999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -38616,7 +38914,7 @@
         <v>2563.8451500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -38639,7 +38937,7 @@
         <v>1.17189358968257</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -38662,7 +38960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -38685,7 +38983,7 @@
         <v>14.9222784</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -38708,7 +39006,7 @@
         <v>11685839.15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -38731,7 +39029,7 @@
         <v>63.610635000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -38754,7 +39052,7 @@
         <v>2057.5586499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -38777,7 +39075,7 @@
         <v>1.1617808023604399</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -38800,7 +39098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -38823,7 +39121,7 @@
         <v>7.2142171999999603</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -38846,7 +39144,7 @@
         <v>14490510.699999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -38869,7 +39167,7 @@
         <v>68.323759999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -38892,7 +39190,7 @@
         <v>2352.1450499999901</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -38915,7 +39213,7 @@
         <v>1.1671346309427399</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>88.240854999999996</v>
@@ -38956,20 +39254,20 @@
       <selection activeCell="B25" sqref="B25:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="11" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -39007,7 +39305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -39045,7 +39343,7 @@
         <v>45.127986257999801</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -39083,7 +39381,7 @@
         <v>21326380.222999901</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -39121,7 +39419,7 @@
         <v>135.99200714999901</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -39159,7 +39457,7 @@
         <v>3983.7205019999901</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -39197,7 +39495,7 @@
         <v>1.27504564180865</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -39235,7 +39533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -39270,7 +39568,7 @@
         <v>15.063474357999899</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -39305,7 +39603,7 @@
         <v>14721491.472999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -39340,7 +39638,7 @@
         <v>77.911990250000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -39375,7 +39673,7 @@
         <v>2345.3693010000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -39410,7 +39708,7 @@
         <v>1.19990217124946</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -39448,7 +39746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -39486,7 +39784,7 @@
         <v>6.9798076820000103</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -39524,7 +39822,7 @@
         <v>11385288.092</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -39562,7 +39860,7 @@
         <v>56.531310050000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -39600,7 +39898,7 @@
         <v>1853.558955</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -39638,7 +39936,7 @@
         <v>1.2029751413584</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -39676,7 +39974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -39711,7 +40009,7 @@
         <v>9.8665112439999394</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -39746,7 +40044,7 @@
         <v>15286636.188999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -39781,7 +40079,7 @@
         <v>75.407705999999905</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -39816,7 +40114,7 @@
         <v>2340.3117309999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -39851,7 +40149,7 @@
         <v>1.196845063087</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -39905,15 +40203,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B81BF89-FACE-48EC-9998-C867D257671B}">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -39933,7 +40231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -39959,7 +40257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -39979,7 +40277,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -39999,7 +40297,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -40019,12 +40317,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -40044,7 +40342,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -40064,7 +40362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -40084,7 +40382,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -40104,12 +40402,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -40129,7 +40427,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -40149,7 +40447,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -40169,7 +40467,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -40189,12 +40487,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>44</v>
       </c>
@@ -40214,7 +40512,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -40234,7 +40532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>46</v>
       </c>
@@ -40254,7 +40552,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>47</v>
       </c>
@@ -40274,241 +40572,1129 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>121</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>122</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
         <v>123</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>124</v>
       </c>
-      <c r="J24" t="s">
+      <c r="N24" t="s">
         <v>130</v>
       </c>
+      <c r="P24" t="s">
+        <v>131</v>
+      </c>
       <c r="R24" t="s">
+        <v>138</v>
+      </c>
+      <c r="T24" t="s">
+        <v>132</v>
+      </c>
+      <c r="V24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>141</v>
+      </c>
+      <c r="R25" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" t="s">
+        <v>141</v>
+      </c>
+      <c r="V25" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>134.673911</v>
+      </c>
+      <c r="C26">
+        <v>23.863214928000001</v>
+      </c>
+      <c r="D26">
+        <v>136.0315942</v>
+      </c>
+      <c r="E26">
+        <v>23.86473316</v>
+      </c>
+      <c r="F26">
+        <v>136.189966</v>
+      </c>
+      <c r="G26">
+        <v>23.823920384000001</v>
+      </c>
+      <c r="H26">
+        <v>136.15739274999899</v>
+      </c>
+      <c r="I26">
+        <v>23.910072759999998</v>
+      </c>
+      <c r="J26">
+        <v>136.19233629999999</v>
+      </c>
+      <c r="K26">
+        <v>23.916122808000001</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>136.212232999999</v>
+      </c>
+      <c r="O26">
+        <v>24.152510463999999</v>
+      </c>
+      <c r="P26">
+        <v>136.19818584999999</v>
+      </c>
+      <c r="Q26">
+        <v>23.987009583999999</v>
+      </c>
+      <c r="R26">
+        <v>136.189966</v>
+      </c>
+      <c r="S26">
+        <v>23.823920384000001</v>
+      </c>
+      <c r="T26">
+        <v>136.10277495</v>
+      </c>
+      <c r="U26">
+        <v>23.585238111999999</v>
+      </c>
+      <c r="V26">
+        <v>136.11493325000001</v>
+      </c>
+      <c r="W26">
+        <v>24.206973080000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>76.593031049999993</v>
+      </c>
+      <c r="C27">
+        <v>18.342516728</v>
+      </c>
+      <c r="D27">
+        <v>78.239183249999996</v>
+      </c>
+      <c r="E27">
+        <v>18.4695429359999</v>
+      </c>
+      <c r="F27">
+        <v>78.416080600000001</v>
+      </c>
+      <c r="G27">
+        <v>18.373837704</v>
+      </c>
+      <c r="H27">
+        <v>78.438806349999993</v>
+      </c>
+      <c r="I27">
+        <v>18.427426248</v>
+      </c>
+      <c r="J27">
+        <v>78.472801799999999</v>
+      </c>
+      <c r="K27">
+        <v>18.444388495999998</v>
+      </c>
+      <c r="M27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>78.268139450000007</v>
+      </c>
+      <c r="O27">
+        <v>18.110315679999999</v>
+      </c>
+      <c r="P27">
+        <v>78.297264999999996</v>
+      </c>
+      <c r="Q27">
+        <v>18.205645231999998</v>
+      </c>
+      <c r="R27">
+        <v>78.416080600000001</v>
+      </c>
+      <c r="S27">
+        <v>18.373837704</v>
+      </c>
+      <c r="T27">
+        <v>78.567696299999994</v>
+      </c>
+      <c r="U27">
+        <v>18.4963202</v>
+      </c>
+      <c r="V27">
+        <v>78.289519149999904</v>
+      </c>
+      <c r="W27">
+        <v>19.146927519999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>54.633431299999998</v>
+      </c>
+      <c r="C28">
+        <v>14.5196695279999</v>
+      </c>
+      <c r="D28">
+        <v>55.911649500000003</v>
+      </c>
+      <c r="E28">
+        <v>14.562896152</v>
+      </c>
+      <c r="F28">
+        <v>56.050970549999903</v>
+      </c>
+      <c r="G28">
+        <v>14.532329663999899</v>
+      </c>
+      <c r="H28">
+        <v>56.021988100000002</v>
+      </c>
+      <c r="I28">
+        <v>14.581009784000001</v>
+      </c>
+      <c r="J28">
+        <v>56.0238384499999</v>
+      </c>
+      <c r="K28">
+        <v>14.523653759999901</v>
+      </c>
+      <c r="M28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>55.994835350000002</v>
+      </c>
+      <c r="O28">
+        <v>14.306582799999999</v>
+      </c>
+      <c r="P28">
+        <v>56.007399699999901</v>
+      </c>
+      <c r="Q28">
+        <v>14.406964783999999</v>
+      </c>
+      <c r="R28">
+        <v>56.050970549999903</v>
+      </c>
+      <c r="S28">
+        <v>14.532329663999899</v>
+      </c>
+      <c r="T28">
+        <v>56.103927400000003</v>
+      </c>
+      <c r="U28">
+        <v>14.653527759999999</v>
+      </c>
+      <c r="V28">
+        <v>55.822662099999903</v>
+      </c>
+      <c r="W28">
+        <v>15.1425584319999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>73.418160099999994</v>
+      </c>
+      <c r="C29">
+        <v>18.2400012159999</v>
+      </c>
+      <c r="D29">
+        <v>75.078614849999894</v>
+      </c>
+      <c r="E29">
+        <v>18.444686591999901</v>
+      </c>
+      <c r="F29">
+        <v>75.227871099999902</v>
+      </c>
+      <c r="G29">
+        <v>18.504207567999899</v>
+      </c>
+      <c r="H29">
+        <v>75.216581299999902</v>
+      </c>
+      <c r="I29">
+        <v>18.598694367999901</v>
+      </c>
+      <c r="J29">
+        <v>75.223368750000006</v>
+      </c>
+      <c r="K29">
+        <v>18.564890727999899</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>75.162456800000001</v>
+      </c>
+      <c r="O29">
+        <v>18.447326087999901</v>
+      </c>
+      <c r="P29">
+        <v>75.196798700000002</v>
+      </c>
+      <c r="Q29">
+        <v>18.491786703999999</v>
+      </c>
+      <c r="R29">
+        <v>75.227871099999902</v>
+      </c>
+      <c r="S29">
+        <v>18.504207567999899</v>
+      </c>
+      <c r="T29">
+        <v>75.217179650000006</v>
+      </c>
+      <c r="U29">
+        <v>18.525901559999902</v>
+      </c>
+      <c r="V29">
+        <v>75.234480050000002</v>
+      </c>
+      <c r="W29">
+        <v>18.784887871999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(B26:B29)</f>
+        <v>84.829633362500005</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:K30" si="0">AVERAGE(C26:C29)</f>
+        <v>18.741350599999951</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>86.315260449999968</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>18.83546470999995</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>86.471222062499947</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>18.808573829999951</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>86.458692124999729</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>18.879300789999974</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>86.478086324999978</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>18.862263947999949</v>
+      </c>
+      <c r="M30" t="s">
+        <v>116</v>
+      </c>
+      <c r="N30">
+        <f>AVERAGE(N26:N29)</f>
+        <v>86.409416149999743</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30" si="1">AVERAGE(O26:O29)</f>
+        <v>18.754183757999975</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30" si="2">AVERAGE(P26:P29)</f>
+        <v>86.42491231249997</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30" si="3">AVERAGE(Q26:Q29)</f>
+        <v>18.772851576000001</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30" si="4">AVERAGE(R26:R29)</f>
+        <v>86.471222062499947</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30" si="5">AVERAGE(S26:S29)</f>
+        <v>18.808573829999951</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30" si="6">AVERAGE(T26:T29)</f>
+        <v>86.497894574999989</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ref="U30" si="7">AVERAGE(U26:U29)</f>
+        <v>18.815246907999978</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ref="V30" si="8">AVERAGE(V26:V29)</f>
+        <v>86.36539863749995</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ref="W30" si="9">AVERAGE(W26:W29)</f>
+        <v>19.320336725999976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" t="s">
+        <v>135</v>
+      </c>
+      <c r="P32" t="s">
+        <v>136</v>
+      </c>
+      <c r="R32" t="s">
+        <v>137</v>
+      </c>
+      <c r="T32" t="s">
+        <v>139</v>
+      </c>
+      <c r="V32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P33" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>141</v>
+      </c>
+      <c r="R33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s">
+        <v>141</v>
+      </c>
+      <c r="T33" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" t="s">
+        <v>141</v>
+      </c>
+      <c r="V33" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>136.18520419999999</v>
+      </c>
+      <c r="C34">
+        <v>23.400394047999999</v>
+      </c>
+      <c r="D34">
+        <v>136.189966</v>
+      </c>
+      <c r="E34">
+        <v>23.823920384000001</v>
+      </c>
+      <c r="F34">
+        <v>135.94490414999899</v>
+      </c>
+      <c r="G34">
+        <v>24.541658351999999</v>
+      </c>
+      <c r="H34">
+        <v>135.67176949999899</v>
+      </c>
+      <c r="I34">
+        <v>24.786889343999999</v>
+      </c>
+      <c r="J34">
+        <v>135.51101944999999</v>
+      </c>
+      <c r="K34">
+        <v>24.836980671999999</v>
+      </c>
+      <c r="M34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <v>136.14087685000001</v>
+      </c>
+      <c r="O34">
+        <v>23.768442048000001</v>
+      </c>
+      <c r="P34">
+        <v>136.189966</v>
+      </c>
+      <c r="Q34">
+        <v>23.823920384000001</v>
+      </c>
+      <c r="R34">
+        <v>135.12059239999999</v>
+      </c>
+      <c r="S34">
+        <v>23.575035360000001</v>
+      </c>
+      <c r="T34">
+        <v>133.31713514999899</v>
+      </c>
+      <c r="U34">
+        <v>23.375822631999998</v>
+      </c>
+      <c r="V34">
+        <v>130.9433994</v>
+      </c>
+      <c r="W34">
+        <v>22.712332224000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>79.015965549999905</v>
+      </c>
+      <c r="C35">
+        <v>18.162128631999899</v>
+      </c>
+      <c r="D35">
+        <v>78.416080600000001</v>
+      </c>
+      <c r="E35">
+        <v>18.373837704</v>
+      </c>
+      <c r="F35">
+        <v>77.592258900000004</v>
+      </c>
+      <c r="G35">
+        <v>18.583228120000001</v>
+      </c>
+      <c r="H35">
+        <v>77.128182249999995</v>
+      </c>
+      <c r="I35">
+        <v>18.632958456000001</v>
+      </c>
+      <c r="J35">
+        <v>76.893153099999907</v>
+      </c>
+      <c r="K35">
+        <v>18.689183111999998</v>
+      </c>
+      <c r="M35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>76.949892250000005</v>
+      </c>
+      <c r="O35">
+        <v>18.745333888000001</v>
+      </c>
+      <c r="P35">
+        <v>78.416080600000001</v>
+      </c>
+      <c r="Q35">
+        <v>18.373837704</v>
+      </c>
+      <c r="R35">
+        <v>77.716055850000004</v>
+      </c>
+      <c r="S35">
+        <v>18.108683167999999</v>
+      </c>
+      <c r="T35">
+        <v>76.026621950000006</v>
+      </c>
+      <c r="U35">
+        <v>17.943735087999901</v>
+      </c>
+      <c r="V35">
+        <v>73.988863100000003</v>
+      </c>
+      <c r="W35">
+        <v>17.846337679999898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>56.397348800000003</v>
+      </c>
+      <c r="C36">
+        <v>14.415629592</v>
+      </c>
+      <c r="D36">
+        <v>56.050970549999903</v>
+      </c>
+      <c r="E36">
+        <v>14.532329663999899</v>
+      </c>
+      <c r="F36">
+        <v>56.054028250000002</v>
+      </c>
+      <c r="G36">
+        <v>14.625477271999999</v>
+      </c>
+      <c r="H36">
+        <v>56.006739499999902</v>
+      </c>
+      <c r="I36">
+        <v>14.620942960000001</v>
+      </c>
+      <c r="J36">
+        <v>55.948510450000001</v>
+      </c>
+      <c r="K36">
+        <v>14.648207640000001</v>
+      </c>
+      <c r="M36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>55.2406468</v>
+      </c>
+      <c r="O36">
+        <v>14.655572063999999</v>
+      </c>
+      <c r="P36">
+        <v>56.050970549999903</v>
+      </c>
+      <c r="Q36">
+        <v>14.532329663999899</v>
+      </c>
+      <c r="R36">
+        <v>55.069440149999998</v>
+      </c>
+      <c r="S36">
+        <v>14.483293288</v>
+      </c>
+      <c r="T36">
+        <v>53.7379119</v>
+      </c>
+      <c r="U36">
+        <v>14.545069847999899</v>
+      </c>
+      <c r="V36">
+        <v>52.028439249999998</v>
+      </c>
+      <c r="W36">
+        <v>14.456265648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>75.241970649999999</v>
+      </c>
+      <c r="C37">
+        <v>18.132993712000001</v>
+      </c>
+      <c r="D37">
+        <v>75.227871099999902</v>
+      </c>
+      <c r="E37">
+        <v>18.504207567999899</v>
+      </c>
+      <c r="F37">
+        <v>74.724775949999994</v>
+      </c>
+      <c r="G37">
+        <v>18.632996752</v>
+      </c>
+      <c r="H37">
+        <v>74.332921299999995</v>
+      </c>
+      <c r="I37">
+        <v>18.833611688000001</v>
+      </c>
+      <c r="J37">
+        <v>73.957813049999999</v>
+      </c>
+      <c r="K37">
+        <v>18.874195535999998</v>
+      </c>
+      <c r="M37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37">
+        <v>75.190910200000005</v>
+      </c>
+      <c r="O37">
+        <v>18.705876856</v>
+      </c>
+      <c r="P37">
+        <v>75.227871099999902</v>
+      </c>
+      <c r="Q37">
+        <v>18.504207567999899</v>
+      </c>
+      <c r="R37">
+        <v>74.111319649999899</v>
+      </c>
+      <c r="S37">
+        <v>18.070927944000001</v>
+      </c>
+      <c r="T37">
+        <v>72.291652149999905</v>
+      </c>
+      <c r="U37">
+        <v>17.885553679999902</v>
+      </c>
+      <c r="V37">
+        <v>70.671461549999904</v>
+      </c>
+      <c r="W37">
+        <v>17.73361732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(B34:B37)</f>
+        <v>86.710122299999966</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:K38" si="10">AVERAGE(C34:C37)</f>
+        <v>18.527786495999976</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="10"/>
+        <v>86.471222062499947</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="10"/>
+        <v>18.808573829999951</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="10"/>
+        <v>86.078991812499737</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="10"/>
+        <v>19.095840123999999</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="10"/>
+        <v>85.784903137499725</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="10"/>
+        <v>19.218600611999999</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="10"/>
+        <v>85.577624012499967</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="10"/>
+        <v>19.262141740000001</v>
+      </c>
+      <c r="M38" t="s">
+        <v>116</v>
+      </c>
+      <c r="N38">
+        <f>AVERAGE(N34:N37)</f>
+        <v>85.880581525000011</v>
+      </c>
+      <c r="O38">
+        <f>AVERAGE(O34:O37)</f>
+        <v>18.968806214000001</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ref="P38" si="11">AVERAGE(P34:P37)</f>
+        <v>86.471222062499947</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38" si="12">AVERAGE(Q34:Q37)</f>
+        <v>18.808573829999951</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ref="R38" si="13">AVERAGE(R34:R37)</f>
+        <v>85.504352012499965</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38" si="14">AVERAGE(S34:S37)</f>
+        <v>18.559484940000001</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38" si="15">AVERAGE(T34:T37)</f>
+        <v>83.843330287499725</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38" si="16">AVERAGE(U34:U37)</f>
+        <v>18.437545311999926</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ref="V38" si="17">AVERAGE(V34:V37)</f>
+        <v>81.908040824999972</v>
+      </c>
+      <c r="W38">
+        <f t="shared" ref="W38" si="18">AVERAGE(W34:W37)</f>
+        <v>18.187138217999973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12" t="s">
         <v>131</v>
       </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="U42" s="12"/>
+      <c r="V42" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>134.673911</v>
-      </c>
-      <c r="B25">
-        <v>23.863214928000001</v>
-      </c>
-      <c r="C25">
-        <v>136.0315942</v>
-      </c>
-      <c r="D25">
-        <v>23.86473316</v>
-      </c>
-      <c r="E25">
-        <v>136.15739274999899</v>
-      </c>
-      <c r="G25">
-        <v>136.19233629999999</v>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="10">
+        <f>B30-C30</f>
+        <v>66.088282762500057</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10">
+        <f>D30-E30</f>
+        <v>67.479795740000014</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10">
+        <f>F30-G30</f>
+        <v>67.662648232500004</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10">
+        <f>H30-I30</f>
+        <v>67.579391334999755</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10">
+        <f>J30-K30</f>
+        <v>67.615822377000029</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="N43" s="10">
+        <f>N30-O30</f>
+        <v>67.65523239199976</v>
+      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10">
+        <f>P30-Q30</f>
+        <v>67.652060736499976</v>
+      </c>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10">
+        <f>R30-S30</f>
+        <v>67.662648232500004</v>
+      </c>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10">
+        <f>T30-U30</f>
+        <v>67.682647667000012</v>
+      </c>
+      <c r="U43" s="10"/>
+      <c r="V43" s="15">
+        <f>V30-W30</f>
+        <v>67.045061911499971</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>76.593031049999993</v>
-      </c>
-      <c r="B26">
-        <v>18.342516728</v>
-      </c>
-      <c r="C26">
-        <v>78.239183249999996</v>
-      </c>
-      <c r="D26">
-        <v>18.4695429359999</v>
-      </c>
-      <c r="E26">
-        <v>78.438806349999993</v>
-      </c>
-      <c r="G26">
-        <v>78.472801799999999</v>
-      </c>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="8"/>
+      <c r="V44" s="8"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>54.633431299999998</v>
-      </c>
-      <c r="B27">
-        <v>14.5196695279999</v>
-      </c>
-      <c r="C27">
-        <v>55.911649500000003</v>
-      </c>
-      <c r="D27">
-        <v>14.562896152</v>
-      </c>
-      <c r="E27">
-        <v>56.021988100000002</v>
-      </c>
-      <c r="G27">
-        <v>56.0238384499999</v>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="U45" s="10"/>
+      <c r="V45" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>73.418160099999994</v>
-      </c>
-      <c r="B28">
-        <v>18.2400012159999</v>
-      </c>
-      <c r="C28">
-        <v>75.078614849999894</v>
-      </c>
-      <c r="E28">
-        <v>75.216581299999902</v>
-      </c>
-      <c r="G28">
-        <v>75.223368750000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f>AVERAGE(A25:A28)</f>
-        <v>84.829633362500005</v>
-      </c>
-      <c r="C29">
-        <f>AVERAGE(C25:C28)</f>
-        <v>86.315260449999968</v>
-      </c>
-      <c r="E29">
-        <f>AVERAGE(E25:E28)</f>
-        <v>86.458692124999729</v>
-      </c>
-      <c r="G29">
-        <f>AVERAGE(G25:G28)</f>
-        <v>86.478086324999978</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>136.18520419999999</v>
-      </c>
-      <c r="B33">
-        <v>23.400394047999999</v>
-      </c>
-      <c r="C33">
-        <v>135.94490414999899</v>
-      </c>
-      <c r="D33">
-        <v>24.541658351999999</v>
-      </c>
-      <c r="E33">
-        <v>135.67176949999899</v>
-      </c>
-      <c r="F33">
-        <v>24.786889343999999</v>
-      </c>
-      <c r="G33">
-        <v>135.51101944999999</v>
-      </c>
-      <c r="H33">
-        <v>24.836980671999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>79.015965549999905</v>
-      </c>
-      <c r="B34">
-        <v>18.162128631999899</v>
-      </c>
-      <c r="C34">
-        <v>77.592258900000004</v>
-      </c>
-      <c r="D34">
-        <v>18.583228120000001</v>
-      </c>
-      <c r="E34">
-        <v>77.128182249999995</v>
-      </c>
-      <c r="F34">
-        <v>18.632958456000001</v>
-      </c>
-      <c r="G34">
-        <v>76.893153099999907</v>
-      </c>
-      <c r="H34">
-        <v>18.689183111999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>56.397348800000003</v>
-      </c>
-      <c r="B35">
-        <v>14.415629592</v>
-      </c>
-      <c r="C35">
-        <v>56.054028250000002</v>
-      </c>
-      <c r="D35">
-        <v>14.625477271999999</v>
-      </c>
-      <c r="E35">
-        <v>56.006739499999902</v>
-      </c>
-      <c r="F35">
-        <v>14.620942960000001</v>
-      </c>
-      <c r="G35">
-        <v>55.948510450000001</v>
-      </c>
-      <c r="H35">
-        <v>14.648207640000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>75.241970649999999</v>
-      </c>
-      <c r="B36">
-        <v>18.132993712000001</v>
-      </c>
-      <c r="C36">
-        <v>74.724775949999994</v>
-      </c>
-      <c r="D36">
-        <v>18.632996752</v>
-      </c>
-      <c r="E36">
-        <v>74.332921299999995</v>
-      </c>
-      <c r="F36">
-        <v>18.833611688000001</v>
-      </c>
-      <c r="G36">
-        <v>73.957813049999999</v>
-      </c>
-      <c r="H36">
-        <v>18.874195535999998</v>
+    <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="17">
+        <f>B38-C38</f>
+        <v>68.18233580399999</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17">
+        <f>D38-E38</f>
+        <v>67.662648232500004</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17">
+        <f>F38-G38</f>
+        <v>66.983151688499731</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17">
+        <f>H38-I38</f>
+        <v>66.566302525499722</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17">
+        <f>J38-K38</f>
+        <v>66.315482272499963</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="N46" s="17">
+        <f>N38-O38</f>
+        <v>66.911775311000014</v>
+      </c>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17">
+        <f>P38-Q38</f>
+        <v>67.662648232500004</v>
+      </c>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17">
+        <f>R38-S38</f>
+        <v>66.94486707249996</v>
+      </c>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17">
+        <f>T38-U38</f>
+        <v>65.405784975499799</v>
+      </c>
+      <c r="U46" s="17"/>
+      <c r="V46" s="18">
+        <f>V38-W38</f>
+        <v>63.720902606999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -40520,20 +41706,20 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -40565,7 +41751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -40597,7 +41783,7 @@
         <v>49.130266033999803</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -40629,7 +41815,7 @@
         <v>20529321.429000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -40661,7 +41847,7 @@
         <v>136.46390174999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -40693,7 +41879,7 @@
         <v>2978.9633490000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -40725,7 +41911,7 @@
         <v>1.21294057916065</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -40757,7 +41943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -40789,7 +41975,7 @@
         <v>15.063474357999899</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -40821,7 +42007,7 @@
         <v>14721491.472999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -40853,7 +42039,7 @@
         <v>77.911990250000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -40885,7 +42071,7 @@
         <v>2345.3693010000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -40917,7 +42103,7 @@
         <v>1.19990217124946</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -40949,7 +42135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -40981,7 +42167,7 @@
         <v>6.0464890200000099</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -41013,7 +42199,7 @@
         <v>11515727.394999901</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -41045,7 +42231,7 @@
         <v>55.396315950000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -41077,7 +42263,7 @@
         <v>1851.99972399999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -41109,7 +42295,7 @@
         <v>1.1972270936256699</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -41141,7 +42327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -41173,7 +42359,7 @@
         <v>9.8665112439999394</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -41205,7 +42391,7 @@
         <v>15286636.188999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -41237,7 +42423,7 @@
         <v>75.407705999999905</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -41269,7 +42455,7 @@
         <v>2340.3117309999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -41301,7 +42487,7 @@
         <v>1.196845063087</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -41357,17 +42543,17 @@
       <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -41387,7 +42573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -41410,7 +42596,7 @@
         <v>136.189966</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>68.850180899999998</v>
       </c>
@@ -41430,7 +42616,7 @@
         <v>78.416080600000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>9.3534760499999905</v>
       </c>
@@ -41450,7 +42636,7 @@
         <v>56.050970549999903</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>23.183430399999899</v>
       </c>
@@ -41470,7 +42656,7 @@
         <v>75.227871099999902</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -41499,7 +42685,7 @@
         <v>86.471222062499947</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -41522,7 +42708,7 @@
         <v>142.44489999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>146.74199999999999</v>
       </c>
@@ -41542,7 +42728,7 @@
         <v>106.9199</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>146.74199999999999</v>
       </c>
@@ -41562,7 +42748,7 @@
         <v>85.025350000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>146.74199999999999</v>
       </c>
@@ -41582,7 +42768,7 @@
         <v>109.61179999999899</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -41611,7 +42797,7 @@
         <v>111.00048749999975</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -41634,7 +42820,7 @@
         <v>1.3426399999999901</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>42.103686000000003</v>
       </c>
@@ -41654,7 +42840,7 @@
         <v>9.0265240000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>74.264066999999997</v>
       </c>
@@ -41674,7 +42860,7 @@
         <v>9.9700969999999902</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>66.788415999999998</v>
       </c>
@@ -41694,7 +42880,7 @@
         <v>14.786394</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -41723,7 +42909,7 @@
         <v>8.7814137499999951</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -41746,7 +42932,7 @@
         <v>3.7710499999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0</v>
       </c>
@@ -41766,7 +42952,7 @@
         <v>11.80475</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0</v>
       </c>
@@ -41786,7 +42972,7 @@
         <v>10.5297</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
@@ -41806,7 +42992,7 @@
         <v>7.0290999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -41835,7 +43021,7 @@
         <v>8.2836499999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -41877,17 +43063,17 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -41931,7 +43117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -41982,7 +43168,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -42033,7 +43219,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -42084,7 +43270,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -42135,7 +43321,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -42176,7 +43362,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -42215,7 +43401,7 @@
         <v>86.478086329999996</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -42269,27 +43455,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F4C8AE-CA13-459B-9D21-028ECDE81F3D}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -42313,9 +43499,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
         <v>137.49988099999999</v>
@@ -42336,9 +43522,9 @@
         <v>136.189966</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="D3">
         <v>68.850180899999998</v>
@@ -42359,9 +43545,9 @@
         <v>78.416080600000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>9.3534760499999905</v>
@@ -42382,9 +43568,9 @@
         <v>56.050970549999903</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>23.183430399999899</v>
@@ -42405,9 +43591,9 @@
         <v>75.227871099999902</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="D6">
         <f>AVERAGE(D2:D5)</f>
@@ -42455,7 +43641,7 @@
         <v>86.471222060000002</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>119</v>
       </c>
@@ -42478,9 +43664,9 @@
         <v>111.00048750000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -42522,9 +43708,9 @@
         <v>8.7814137500000005</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D9">
         <v>146.74199999999999</v>
@@ -42566,9 +43752,9 @@
         <v>8.2836499999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="D10">
         <v>146.74199999999999</v>
@@ -42589,9 +43775,9 @@
         <v>106.9199</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>146.74199999999999</v>
@@ -42612,9 +43798,9 @@
         <v>85.025350000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>146.74199999999999</v>
@@ -42635,9 +43821,9 @@
         <v>109.61179999999899</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D9:D12)</f>
@@ -42664,9 +43850,9 @@
         <v>111.00048749999975</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -42687,9 +43873,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D16">
         <v>4.9957399999999996</v>
@@ -42710,9 +43896,9 @@
         <v>1.3426399999999901</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="D17">
         <v>42.103686000000003</v>
@@ -42733,9 +43919,9 @@
         <v>9.0265240000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>74.264066999999997</v>
@@ -42756,9 +43942,9 @@
         <v>9.9700969999999902</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>66.788415999999998</v>
@@ -42779,9 +43965,9 @@
         <v>14.786394</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="D20">
         <f>AVERAGE(D16:D19)</f>
@@ -42808,9 +43994,9 @@
         <v>8.7814137499999951</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>117</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -42831,9 +44017,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>3</v>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -42854,9 +44040,9 @@
         <v>3.7710499999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -42877,9 +44063,9 @@
         <v>11.80475</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -42900,9 +44086,9 @@
         <v>10.5297</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -42923,9 +44109,9 @@
         <v>7.0290999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="D27">
         <f>AVERAGE(D23:D26)</f>
@@ -42952,7 +44138,7 @@
         <v>8.2836499999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
   </sheetData>

--- a/short video_NewQoE (version 1).xlsx
+++ b/short video_NewQoE (version 1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\FIL_lab\A_DUC\Short_clip_journal\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Short_clip_journal\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F8351-0494-48E8-A4BC-ED5FFCE74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C3F3A-BF71-4CCE-8BB7-65E5A12B8477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="3030" windowWidth="21600" windowHeight="11235" firstSheet="6" activeTab="14" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="Waste" sheetId="27" r:id="rId13"/>
     <sheet name="Smooth" sheetId="29" r:id="rId14"/>
     <sheet name="Time run" sheetId="30" r:id="rId15"/>
+    <sheet name="Time" sheetId="31" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="146">
   <si>
     <t>Fix B</t>
   </si>
@@ -721,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -743,6 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10159,9 +10161,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -10711,9 +10711,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -11117,7 +11115,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Rebuffering</a:t>
+                  <a:t>Re-buffering</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="1" baseline="0">
@@ -11144,7 +11142,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0"/>
-              <c:y val="0.19209870729399675"/>
+              <c:y val="0.16400236276390281"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -11264,9 +11262,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -11328,7 +11324,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Waste!$K$9</c:f>
+              <c:f>'Norm QoE'!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11353,19 +11349,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>[1]Waste!$K$10</c:f>
+              <c:f>'Norm QoE'!$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>42.191351047999902</c:v>
+                  <c:v>0.69065453989229042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E316-4F83-8AA6-66FB44FAC2E2}"/>
+              <c16:uniqueId val="{00000000-91FB-44CB-8091-122A9E13A99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11374,7 +11370,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Waste!$L$9</c:f>
+              <c:f>'Norm QoE'!$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11395,19 +11391,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>[1]Waste!$L$10</c:f>
+              <c:f>'Norm QoE'!$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27.041329884</c:v>
+                  <c:v>0.71233071050481189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E316-4F83-8AA6-66FB44FAC2E2}"/>
+              <c16:uniqueId val="{00000001-91FB-44CB-8091-122A9E13A99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11416,7 +11412,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Waste!$M$9</c:f>
+              <c:f>'Norm QoE'!$M$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11437,19 +11433,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>[1]Waste!$M$10</c:f>
+              <c:f>'Norm QoE'!$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20.867653546</c:v>
+                  <c:v>0.8603559700327561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E316-4F83-8AA6-66FB44FAC2E2}"/>
+              <c16:uniqueId val="{00000002-91FB-44CB-8091-122A9E13A99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11458,7 +11454,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Waste!$N$9</c:f>
+              <c:f>'Norm QoE'!$N$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11481,19 +11477,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>[1]Waste!$N$10</c:f>
+              <c:f>'Norm QoE'!$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>33.187162149999999</c:v>
+                  <c:v>0.78507655415038258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E316-4F83-8AA6-66FB44FAC2E2}"/>
+              <c16:uniqueId val="{00000003-91FB-44CB-8091-122A9E13A99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11502,7 +11498,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Waste!$O$9</c:f>
+              <c:f>'Norm QoE'!$O$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11531,19 +11527,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>[1]Waste!$O$10</c:f>
+              <c:f>'Norm QoE'!$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45.055949911999903</c:v>
+                  <c:v>0.8962087477090005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E316-4F83-8AA6-66FB44FAC2E2}"/>
+              <c16:uniqueId val="{00000004-91FB-44CB-8091-122A9E13A99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11552,7 +11548,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Waste!$P$9</c:f>
+              <c:f>'Norm QoE'!$P$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11575,7 +11571,542 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>[1]Waste!$P$10</c:f>
+              <c:f>'Norm QoE'!$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-91FB-44CB-8091-122A9E13A99A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="191"/>
+        <c:axId val="644726432"/>
+        <c:axId val="644725600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644726432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="644725600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644725600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Normalized Average QoE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.12845533783631188"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644726432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow>
+            <a:srgbClr val="4F81BD"/>
+          </a:glow>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13572984026237866"/>
+          <c:y val="0.88293963254593177"/>
+          <c:w val="0.84309006427200128"/>
+          <c:h val="0.11394880607350791"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11552602799650044"/>
+          <c:y val="3.4816881333541924E-2"/>
+          <c:w val="0.87680582895888015"/>
+          <c:h val="0.81368553574979097"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Waste!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Waste!$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42.191351047999902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-048F-435D-AA49-EE721C18FF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Waste!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network-Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Waste!$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.041329884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-048F-435D-AA49-EE721C18FF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Waste!$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Waste!$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20.867653546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-048F-435D-AA49-EE721C18FF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Waste!$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed-Preload</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Waste!$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33.187162149999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-048F-435D-AA49-EE721C18FF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Waste!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No-Save</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow>
+                <a:srgbClr val="4F81BD">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Waste!$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45.055949911999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-048F-435D-AA49-EE721C18FF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Waste!$P$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Waste!$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -11587,7 +12118,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E316-4F83-8AA6-66FB44FAC2E2}"/>
+              <c16:uniqueId val="{00000005-048F-435D-AA49-EE721C18FF13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11817,9 +12348,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -11844,7 +12373,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11881,7 +12410,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Norm QoE'!$K$9</c:f>
+              <c:f>Time!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11906,19 +12435,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Norm QoE'!$K$10</c:f>
+              <c:f>Time!$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.69065453989229042</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-91FB-44CB-8091-122A9E13A99A}"/>
+              <c16:uniqueId val="{00000000-2BDE-4C52-9FC5-4404B089E82E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11927,7 +12456,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Norm QoE'!$L$9</c:f>
+              <c:f>Time!$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11948,19 +12477,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Norm QoE'!$L$10</c:f>
+              <c:f>Time!$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.71233071050481189</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-91FB-44CB-8091-122A9E13A99A}"/>
+              <c16:uniqueId val="{00000001-2BDE-4C52-9FC5-4404B089E82E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11969,7 +12498,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Norm QoE'!$M$9</c:f>
+              <c:f>Time!$M$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11990,19 +12519,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Norm QoE'!$M$10</c:f>
+              <c:f>Time!$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8603559700327561</c:v>
+                  <c:v>8.6439253506856648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-91FB-44CB-8091-122A9E13A99A}"/>
+              <c16:uniqueId val="{00000002-2BDE-4C52-9FC5-4404B089E82E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12011,7 +12540,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Norm QoE'!$N$9</c:f>
+              <c:f>Time!$N$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12034,19 +12563,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Norm QoE'!$N$10</c:f>
+              <c:f>Time!$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.78507655415038258</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-91FB-44CB-8091-122A9E13A99A}"/>
+              <c16:uniqueId val="{00000003-2BDE-4C52-9FC5-4404B089E82E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12055,7 +12584,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Norm QoE'!$O$9</c:f>
+              <c:f>Time!$O$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12084,19 +12613,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Norm QoE'!$O$10</c:f>
+              <c:f>Time!$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8962087477090005</c:v>
+                  <c:v>0.94148077139349773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-91FB-44CB-8091-122A9E13A99A}"/>
+              <c16:uniqueId val="{00000004-2BDE-4C52-9FC5-4404B089E82E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12105,7 +12634,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Norm QoE'!$P$9</c:f>
+              <c:f>Time!$P$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12128,19 +12657,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Norm QoE'!$P$10</c:f>
+              <c:f>Time!$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6.6683945417420727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-91FB-44CB-8091-122A9E13A99A}"/>
+              <c16:uniqueId val="{00000005-2BDE-4C52-9FC5-4404B089E82E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12178,7 +12707,6 @@
         <c:axId val="644725600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12224,7 +12752,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Normalized Average QoE</a:t>
+                  <a:t>Average Execution Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12234,7 +12762,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0"/>
-              <c:y val="0.12845533783631188"/>
+              <c:y val="9.5662739453968998E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -12354,9 +12882,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -17828,6 +18354,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -27665,6 +28231,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -31323,7 +32392,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4211D45-324B-4854-8E7E-EADA2CE0AD56}"/>
@@ -31354,15 +32423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>450412</xdr:colOff>
+      <xdr:colOff>205822</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>170334</xdr:rowOff>
+      <xdr:rowOff>15446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>198505</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>606104</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123981</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31392,15 +32461,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>125505</xdr:colOff>
+      <xdr:colOff>345124</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>18505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133574</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>79786</xdr:rowOff>
+      <xdr:colOff>391159</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31429,16 +32498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>268045</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476655</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31460,44 +32529,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>185058</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>193127</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>59295</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C446C6D-D43B-4376-93C0-45425ADA735D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31535,7 +32566,88 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>299758</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46841</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0B830C-5D80-48DD-8C74-AFB3FF66820C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552199</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209498</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130765</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E8BFCD-8D7E-4680-9622-C059865D6752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -32239,26 +33351,25 @@
       <sheetName val="50 user traces"/>
       <sheetName val="Sheet3"/>
       <sheetName val="100 user traces"/>
+      <sheetName val="Sheet4"/>
       <sheetName val="M"/>
-      <sheetName val="Sheet4"/>
       <sheetName val="QoE"/>
       <sheetName val="Norm QoE"/>
       <sheetName val="Bitrate"/>
       <sheetName val="Rebuf"/>
       <sheetName val="Smooth"/>
-      <sheetName val="Waste"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="9">
           <cell r="K9" t="str">
@@ -32343,49 +33454,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="9">
-          <cell r="K9" t="str">
-            <v>Next-One</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>Network-Based</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>PDAS</v>
-          </cell>
-          <cell r="N9" t="str">
-            <v>Fixed-Preload</v>
-          </cell>
-          <cell r="O9" t="str">
-            <v>No-Save</v>
-          </cell>
-          <cell r="P9" t="str">
-            <v>Proposed</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>42.191351047999902</v>
-          </cell>
-          <cell r="L10">
-            <v>27.041329884</v>
-          </cell>
-          <cell r="M10">
-            <v>20.867653546</v>
-          </cell>
-          <cell r="N10">
-            <v>33.187162149999999</v>
-          </cell>
-          <cell r="O10">
-            <v>45.055949911999903</v>
-          </cell>
-          <cell r="P10">
-            <v>18.80857383</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -32687,6 +33756,292 @@
 </file>
 
 <file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office 2007 - 2010">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride10.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office 2007 - 2010">
     <a:dk1>
@@ -35268,16 +36623,16 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -35303,7 +36658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -35329,7 +36684,7 @@
         <v>12.400029399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -35355,7 +36710,7 @@
         <v>13457863.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -35381,7 +36736,7 @@
         <v>72.553984999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -35407,7 +36762,7 @@
         <v>3696.1902500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -35433,7 +36788,7 @@
         <v>1.31345402910898</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -35459,7 +36814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -35485,7 +36840,7 @@
         <v>-5.9809045999999899</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -35511,7 +36866,7 @@
         <v>8958526.1500000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -35537,7 +36892,7 @@
         <v>32.373199999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -35563,7 +36918,7 @@
         <v>2909.2682</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -35589,7 +36944,7 @@
         <v>1.2637557685481</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -35615,7 +36970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -35641,7 +36996,7 @@
         <v>-11.717597899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -35667,7 +37022,7 @@
         <v>7007740.0999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -35693,7 +37048,7 @@
         <v>18.6258625</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -35719,7 +37074,7 @@
         <v>2475.1986000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -35745,7 +37100,7 @@
         <v>1.27203881197491</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -35771,7 +37126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -35797,7 +37152,7 @@
         <v>-12.5949740999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -35823,7 +37178,7 @@
         <v>9616830.4000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -35849,7 +37204,7 @@
         <v>30.322347499999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -35875,7 +37230,7 @@
         <v>2806.8782500000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -35901,7 +37256,7 @@
         <v>1.27795527156549</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>42.00813124999997</v>
@@ -35942,17 +37297,17 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -35996,7 +37351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -36047,7 +37402,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -36098,7 +37453,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -36149,7 +37504,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -36200,7 +37555,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -36244,7 +37599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -36292,7 +37647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -36354,17 +37709,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -36408,7 +37763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -36459,7 +37814,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -36510,7 +37865,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -36561,7 +37916,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -36612,7 +37967,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -36656,7 +38011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -36698,7 +38053,7 @@
         <v>111.00048750000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -36760,17 +38115,17 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -36814,7 +38169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -36865,7 +38220,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -36916,7 +38271,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -36967,7 +38322,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -37018,7 +38373,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -37062,7 +38417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -37104,7 +38459,7 @@
         <v>8.7814137500000005</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -37163,20 +38518,20 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -37220,7 +38575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -37271,7 +38626,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -37322,7 +38677,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -37373,7 +38728,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -37424,7 +38779,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -37468,7 +38823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -37510,7 +38865,7 @@
         <v>18.80857383</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -37569,21 +38924,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C9FB5C-D2BC-4459-A139-B18C08871457}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -37627,7 +38982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -37678,7 +39033,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -37729,7 +39084,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -37780,7 +39135,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -37831,7 +39186,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -37875,7 +39230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -37917,7 +39272,7 @@
         <v>8.2836499999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -37975,21 +39330,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B36B554-3C03-402F-AB4D-14B565240528}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -38012,33 +39367,536 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="19">
+        <v>2.1057145389484999E-6</v>
+      </c>
+      <c r="C2" s="19">
+        <v>9.1198482313804801E-6</v>
+      </c>
+      <c r="D2">
+        <v>3.3365516791282E-3</v>
+      </c>
+      <c r="E2" s="19">
+        <v>4.0886438242992303E-6</v>
+      </c>
+      <c r="F2">
+        <v>8.7244080680936502E-4</v>
+      </c>
+      <c r="G2">
+        <v>4.9428399692877196E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>144</v>
       </c>
+      <c r="B3" s="19">
+        <v>1.90497010460088E-6</v>
+      </c>
+      <c r="C3" s="19">
+        <v>9.0165229003555798E-6</v>
+      </c>
+      <c r="D3">
+        <v>9.5876612410049303E-3</v>
+      </c>
+      <c r="E3" s="19">
+        <v>3.5239718015538102E-6</v>
+      </c>
+      <c r="F3">
+        <v>9.6815314447216299E-4</v>
+      </c>
+      <c r="G3">
+        <v>7.40949199786212E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="19">
+        <v>1.7588623851299999E-6</v>
+      </c>
+      <c r="C4" s="19">
+        <v>8.2377768085898507E-6</v>
+      </c>
+      <c r="D4">
+        <v>1.2630051102555301E-2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3.0911812138985699E-6</v>
+      </c>
+      <c r="F4">
+        <v>9.7263029851022895E-4</v>
+      </c>
+      <c r="G4">
+        <v>7.59261408079285E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="19">
+        <v>2.4586124709349598E-6</v>
+      </c>
+      <c r="C5" s="19">
+        <v>9.7192961610029208E-6</v>
+      </c>
+      <c r="D5">
+        <v>9.0214373800542296E-3</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3.8571203883815203E-6</v>
+      </c>
+      <c r="F5">
+        <v>9.5269883578223398E-4</v>
+      </c>
+      <c r="G5">
+        <v>6.7286321190256002E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>145</v>
+      </c>
+      <c r="B6" s="19">
+        <f>AVERAGE(B2,B3,B4,B5)*1000</f>
+        <v>2.057039874903585E-3</v>
+      </c>
+      <c r="C6" s="19">
+        <f t="shared" ref="C6:G6" si="0">AVERAGE(C2,C3,C4,C5)*1000</f>
+        <v>9.0233610253322074E-3</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>8.6439253506856648</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" si="0"/>
+        <v>3.6402293070332829E-3</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.94148077139349773</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="0"/>
+        <v>6.6683945417420727</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4706586-4F9F-48D7-8E87-8605D42303F3}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10398.499846999999</v>
+      </c>
+      <c r="B2">
+        <v>4255.4862089999997</v>
+      </c>
+      <c r="C2">
+        <v>3269.9377039999999</v>
+      </c>
+      <c r="D2">
+        <v>7403.1791479999902</v>
+      </c>
+      <c r="E2">
+        <v>12186.940406</v>
+      </c>
+      <c r="F2">
+        <v>2977.9900479999901</v>
+      </c>
+      <c r="H2">
+        <f>MAX(A2:F2)</f>
+        <v>12186.940406</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>A2/H2</f>
+        <v>0.85324942114925773</v>
+      </c>
+      <c r="L2">
+        <f>B2/H2</f>
+        <v>0.34918413213089111</v>
+      </c>
+      <c r="M2">
+        <f>C2/H2</f>
+        <v>0.26831490062838992</v>
+      </c>
+      <c r="N2">
+        <f>D2/H2</f>
+        <v>0.60746823249871484</v>
+      </c>
+      <c r="O2">
+        <f>E2/H2</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>F2/H2</f>
+        <v>0.24435912122240586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3282.2179839999999</v>
+      </c>
+      <c r="B3">
+        <v>3066.4288449999999</v>
+      </c>
+      <c r="C3">
+        <v>2581.6783300000002</v>
+      </c>
+      <c r="D3">
+        <v>3143.3183600000002</v>
+      </c>
+      <c r="E3">
+        <v>3329.9534229999999</v>
+      </c>
+      <c r="F3">
+        <v>2296.7297130000002</v>
+      </c>
+      <c r="H3">
+        <f>MAX(A3:F3)</f>
+        <v>3329.9534229999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <f>A3/H3</f>
+        <v>0.98566483282610162</v>
+      </c>
+      <c r="L3">
+        <f>B3/H3</f>
+        <v>0.92086238318535185</v>
+      </c>
+      <c r="M3">
+        <f>C3/H3</f>
+        <v>0.77528962182123595</v>
+      </c>
+      <c r="N3">
+        <f>D3/H3</f>
+        <v>0.94395265059537747</v>
+      </c>
+      <c r="O3">
+        <f>E3/H3</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>F3/H3</f>
+        <v>0.6897182696720261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2844.9444619999999</v>
+      </c>
+      <c r="B4">
+        <v>2748.3808759999902</v>
+      </c>
+      <c r="C4">
+        <v>2071.0399779999998</v>
+      </c>
+      <c r="D4">
+        <v>2315.199807</v>
+      </c>
+      <c r="E4">
+        <v>2311.425729</v>
+      </c>
+      <c r="F4">
+        <v>1816.5412080000001</v>
+      </c>
+      <c r="H4">
+        <f>MAX(A4:F4)</f>
+        <v>2844.9444619999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <f>A4/H4</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>B4/H4</f>
+        <v>0.96605783090326991</v>
+      </c>
+      <c r="M4">
+        <f>C4/H4</f>
+        <v>0.72797202394033933</v>
+      </c>
+      <c r="N4">
+        <f>D4/H4</f>
+        <v>0.81379437733290982</v>
+      </c>
+      <c r="O4">
+        <f>E4/H4</f>
+        <v>0.81246778623406402</v>
+      </c>
+      <c r="P4">
+        <f>F4/H4</f>
+        <v>0.63851552543945589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4570.0132309999899</v>
+      </c>
+      <c r="B5">
+        <v>3450.3690120000001</v>
+      </c>
+      <c r="C5">
+        <v>2511.1707609999999</v>
+      </c>
+      <c r="D5">
+        <v>3731.8837600000002</v>
+      </c>
+      <c r="E5">
+        <v>4699.6553979999999</v>
+      </c>
+      <c r="F5">
+        <v>2313.0259460000002</v>
+      </c>
+      <c r="H5">
+        <f>MAX(A5:F5)</f>
+        <v>4699.6553979999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f>A5/H5</f>
+        <v>0.97241453765840347</v>
+      </c>
+      <c r="L5">
+        <f>B5/H5</f>
+        <v>0.73417489577392203</v>
+      </c>
+      <c r="M5">
+        <f>C5/H5</f>
+        <v>0.53433082818554345</v>
+      </c>
+      <c r="N5">
+        <f>D5/H5</f>
+        <v>0.79407604259413411</v>
+      </c>
+      <c r="O5">
+        <f>E5/H5</f>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f>F5/H5</f>
+        <v>0.49216926564112312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>59.721742087499969</v>
+      </c>
+      <c r="B10">
+        <v>61.596107049999958</v>
+      </c>
+      <c r="C10">
+        <v>74.396032137500001</v>
+      </c>
+      <c r="D10">
+        <v>67.886529049999993</v>
+      </c>
+      <c r="E10">
+        <v>77.496265637499974</v>
+      </c>
+      <c r="F10">
+        <v>86.471222062499947</v>
+      </c>
+      <c r="H10">
+        <f>MAX(A10:F10)</f>
+        <v>86.471222062499947</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>8.6439253506856648</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.94148077139349773</v>
+      </c>
+      <c r="P10" s="5">
+        <v>6.6683945417420727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>71.901179319999997</v>
+      </c>
+      <c r="B11">
+        <v>59.731628489999999</v>
+      </c>
+      <c r="C11">
+        <v>73.794094380000004</v>
+      </c>
+      <c r="D11">
+        <v>78.737366530000003</v>
+      </c>
+      <c r="E11">
+        <v>71.397744279999998</v>
+      </c>
+      <c r="F11">
+        <v>81.394545870000002</v>
+      </c>
+      <c r="H11">
+        <f>MAX(A11:F11)</f>
+        <v>81.394545870000002</v>
+      </c>
+      <c r="K11">
+        <f>A11/H11</f>
+        <v>0.88336606036032905</v>
+      </c>
+      <c r="L11">
+        <f>B11/H11</f>
+        <v>0.73385296092690144</v>
+      </c>
+      <c r="M11">
+        <f>C11/H11</f>
+        <v>0.90662210337607729</v>
+      </c>
+      <c r="N11">
+        <f>D11/H11</f>
+        <v>0.96735433177250063</v>
+      </c>
+      <c r="O11">
+        <f>E11/H11</f>
+        <v>0.87718094028110338</v>
+      </c>
+      <c r="P11">
+        <f>F11/H11</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -38050,16 +39908,16 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -38082,7 +39940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -38105,7 +39963,7 @@
         <v>19.326067099999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -38128,7 +39986,7 @@
         <v>12226531.35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -38151,7 +40009,7 @@
         <v>72.254692500000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -38174,7 +40032,7 @@
         <v>2459.7737499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -38197,7 +40055,7 @@
         <v>1.25962447656355</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -38220,7 +40078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -38243,7 +40101,7 @@
         <v>14.442761900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -38266,7 +40124,7 @@
         <v>9606625.1500000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -38289,7 +40147,7 @@
         <v>56.3517624999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -38312,7 +40170,7 @@
         <v>2192.4892999999902</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -38335,7 +40193,7 @@
         <v>1.23514115898959</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -38358,7 +40216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -38381,7 +40239,7 @@
         <v>11.2015174</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -38404,7 +40262,7 @@
         <v>8311325.6500000004</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -38427,7 +40285,7 @@
         <v>46.591819999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -38450,7 +40308,7 @@
         <v>1709.25755</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -38473,7 +40331,7 @@
         <v>1.22416587869782</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -38496,7 +40354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -38519,7 +40377,7 @@
         <v>0.71796760000000803</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -38542,7 +40400,7 @@
         <v>9745886.8499999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -38565,7 +40423,7 @@
         <v>42.524014999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -38588,7 +40446,7 @@
         <v>1915.87105</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -38611,7 +40469,7 @@
         <v>1.2258543833580899</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>61.762774374999701</v>
@@ -38652,16 +40510,16 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -38684,7 +40542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -38707,7 +40565,7 @@
         <v>37.641777299999802</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -38730,7 +40588,7 @@
         <v>19157603.800000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -38753,7 +40611,7 @@
         <v>119.7596925</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -38776,7 +40634,7 @@
         <v>3036.1089499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -38799,7 +40657,7 @@
         <v>1.2147242183410201</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -38822,7 +40680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -38845,7 +40703,7 @@
         <v>22.510033400000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -38868,7 +40726,7 @@
         <v>14041770.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -38891,7 +40749,7 @@
         <v>82.242114999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -38914,7 +40772,7 @@
         <v>2563.8451500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -38937,7 +40795,7 @@
         <v>1.17189358968257</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -38960,7 +40818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -38983,7 +40841,7 @@
         <v>14.9222784</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -39006,7 +40864,7 @@
         <v>11685839.15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -39029,7 +40887,7 @@
         <v>63.610635000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -39052,7 +40910,7 @@
         <v>2057.5586499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -39075,7 +40933,7 @@
         <v>1.1617808023604399</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -39098,7 +40956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -39121,7 +40979,7 @@
         <v>7.2142171999999603</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -39144,7 +41002,7 @@
         <v>14490510.699999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -39167,7 +41025,7 @@
         <v>68.323759999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -39190,7 +41048,7 @@
         <v>2352.1450499999901</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -39213,7 +41071,7 @@
         <v>1.1671346309427399</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>88.240854999999996</v>
@@ -39254,20 +41112,20 @@
       <selection activeCell="B25" sqref="B25:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="11" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -39305,7 +41163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -39343,7 +41201,7 @@
         <v>45.127986257999801</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -39381,7 +41239,7 @@
         <v>21326380.222999901</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -39419,7 +41277,7 @@
         <v>135.99200714999901</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -39457,7 +41315,7 @@
         <v>3983.7205019999901</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -39495,7 +41353,7 @@
         <v>1.27504564180865</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -39533,7 +41391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -39568,7 +41426,7 @@
         <v>15.063474357999899</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -39603,7 +41461,7 @@
         <v>14721491.472999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -39638,7 +41496,7 @@
         <v>77.911990250000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -39673,7 +41531,7 @@
         <v>2345.3693010000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -39708,7 +41566,7 @@
         <v>1.19990217124946</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -39746,7 +41604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -39784,7 +41642,7 @@
         <v>6.9798076820000103</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -39822,7 +41680,7 @@
         <v>11385288.092</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -39860,7 +41718,7 @@
         <v>56.531310050000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -39898,7 +41756,7 @@
         <v>1853.558955</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -39936,7 +41794,7 @@
         <v>1.2029751413584</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -39974,7 +41832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -40009,7 +41867,7 @@
         <v>9.8665112439999394</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -40044,7 +41902,7 @@
         <v>15286636.188999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -40079,7 +41937,7 @@
         <v>75.407705999999905</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -40114,7 +41972,7 @@
         <v>2340.3117309999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -40149,7 +42007,7 @@
         <v>1.196845063087</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -40209,9 +42067,9 @@
       <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -40231,7 +42089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -40257,7 +42115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -40277,7 +42135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -40297,7 +42155,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -40317,12 +42175,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -40342,7 +42200,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -40362,7 +42220,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -40382,7 +42240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -40402,12 +42260,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -40427,7 +42285,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -40447,7 +42305,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -40467,7 +42325,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -40487,12 +42345,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>44</v>
       </c>
@@ -40512,7 +42370,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -40532,7 +42390,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>46</v>
       </c>
@@ -40552,7 +42410,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>47</v>
       </c>
@@ -40572,12 +42430,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>121</v>
       </c>
@@ -40609,7 +42467,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -40671,7 +42529,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -40739,7 +42597,7 @@
         <v>24.206973080000001</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -40807,7 +42665,7 @@
         <v>19.146927519999998</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -40875,7 +42733,7 @@
         <v>15.1425584319999</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -40943,7 +42801,7 @@
         <v>18.784887871999999</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -41031,7 +42889,7 @@
         <v>19.320336725999976</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>126</v>
       </c>
@@ -41063,7 +42921,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>5</v>
       </c>
@@ -41125,7 +42983,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -41193,7 +43051,7 @@
         <v>22.712332224000001</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -41261,7 +43119,7 @@
         <v>17.846337679999898</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -41329,7 +43187,7 @@
         <v>14.456265648</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -41397,7 +43255,7 @@
         <v>17.73361732</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -41485,8 +43343,8 @@
         <v>18.187138217999973</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
         <v>121</v>
@@ -41530,7 +43388,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>142</v>
       </c>
@@ -41586,13 +43444,13 @@
         <v>67.045061911499971</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="8"/>
       <c r="V44" s="8"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="10" t="s">
         <v>126</v>
@@ -41634,7 +43492,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>142</v>
       </c>
@@ -41706,20 +43564,20 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -41751,7 +43609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -41783,7 +43641,7 @@
         <v>49.130266033999803</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -41815,7 +43673,7 @@
         <v>20529321.429000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -41847,7 +43705,7 @@
         <v>136.46390174999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -41879,7 +43737,7 @@
         <v>2978.9633490000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -41911,7 +43769,7 @@
         <v>1.21294057916065</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -41943,7 +43801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -41975,7 +43833,7 @@
         <v>15.063474357999899</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -42007,7 +43865,7 @@
         <v>14721491.472999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -42039,7 +43897,7 @@
         <v>77.911990250000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -42071,7 +43929,7 @@
         <v>2345.3693010000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -42103,7 +43961,7 @@
         <v>1.19990217124946</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -42135,7 +43993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -42167,7 +44025,7 @@
         <v>6.0464890200000099</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -42199,7 +44057,7 @@
         <v>11515727.394999901</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -42231,7 +44089,7 @@
         <v>55.396315950000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -42263,7 +44121,7 @@
         <v>1851.99972399999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -42295,7 +44153,7 @@
         <v>1.1972270936256699</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -42327,7 +44185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -42359,7 +44217,7 @@
         <v>9.8665112439999394</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -42391,7 +44249,7 @@
         <v>15286636.188999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -42423,7 +44281,7 @@
         <v>75.407705999999905</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -42455,7 +44313,7 @@
         <v>2340.3117309999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -42487,7 +44345,7 @@
         <v>1.196845063087</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -42543,17 +44401,17 @@
       <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -42573,7 +44431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -42596,7 +44454,7 @@
         <v>136.189966</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>68.850180899999998</v>
       </c>
@@ -42616,7 +44474,7 @@
         <v>78.416080600000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>9.3534760499999905</v>
       </c>
@@ -42636,7 +44494,7 @@
         <v>56.050970549999903</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>23.183430399999899</v>
       </c>
@@ -42656,7 +44514,7 @@
         <v>75.227871099999902</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -42685,7 +44543,7 @@
         <v>86.471222062499947</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -42708,7 +44566,7 @@
         <v>142.44489999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>146.74199999999999</v>
       </c>
@@ -42728,7 +44586,7 @@
         <v>106.9199</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>146.74199999999999</v>
       </c>
@@ -42748,7 +44606,7 @@
         <v>85.025350000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>146.74199999999999</v>
       </c>
@@ -42768,7 +44626,7 @@
         <v>109.61179999999899</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -42797,7 +44655,7 @@
         <v>111.00048749999975</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -42820,7 +44678,7 @@
         <v>1.3426399999999901</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>42.103686000000003</v>
       </c>
@@ -42840,7 +44698,7 @@
         <v>9.0265240000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>74.264066999999997</v>
       </c>
@@ -42860,7 +44718,7 @@
         <v>9.9700969999999902</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>66.788415999999998</v>
       </c>
@@ -42880,7 +44738,7 @@
         <v>14.786394</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -42909,7 +44767,7 @@
         <v>8.7814137499999951</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -42932,7 +44790,7 @@
         <v>3.7710499999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
@@ -42952,7 +44810,7 @@
         <v>11.80475</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
@@ -42972,7 +44830,7 @@
         <v>10.5297</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>0</v>
       </c>
@@ -42992,7 +44850,7 @@
         <v>7.0290999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -43021,7 +44879,7 @@
         <v>8.2836499999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -43063,17 +44921,17 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -43117,7 +44975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10398.499846999999</v>
       </c>
@@ -43168,7 +45026,7 @@
         <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3282.2179839999999</v>
       </c>
@@ -43219,7 +45077,7 @@
         <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2844.9444619999999</v>
       </c>
@@ -43270,7 +45128,7 @@
         <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4570.0132309999899</v>
       </c>
@@ -43321,7 +45179,7 @@
         <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -43362,7 +45220,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>59.721742087499969</v>
       </c>
@@ -43401,7 +45259,7 @@
         <v>86.478086329999996</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>71.901179319999997</v>
       </c>
@@ -43459,21 +45317,21 @@
       <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -43499,7 +45357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -43522,7 +45380,7 @@
         <v>136.189966</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -43545,7 +45403,7 @@
         <v>78.416080600000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -43568,7 +45426,7 @@
         <v>56.050970549999903</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -43591,7 +45449,7 @@
         <v>75.227871099999902</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -43641,7 +45499,7 @@
         <v>86.471222060000002</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L7" t="s">
         <v>119</v>
       </c>
@@ -43664,7 +45522,7 @@
         <v>111.00048750000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -43708,7 +45566,7 @@
         <v>8.7814137500000005</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -43752,7 +45610,7 @@
         <v>8.2836499999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -43775,7 +45633,7 @@
         <v>106.9199</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -43798,7 +45656,7 @@
         <v>85.025350000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -43821,7 +45679,7 @@
         <v>109.61179999999899</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -43850,7 +45708,7 @@
         <v>111.00048749999975</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -43873,7 +45731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -43896,7 +45754,7 @@
         <v>1.3426399999999901</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -43919,7 +45777,7 @@
         <v>9.0265240000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -43942,7 +45800,7 @@
         <v>9.9700969999999902</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -43965,7 +45823,7 @@
         <v>14.786394</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -43994,7 +45852,7 @@
         <v>8.7814137499999951</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -44017,7 +45875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -44040,7 +45898,7 @@
         <v>3.7710499999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -44063,7 +45921,7 @@
         <v>11.80475</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -44086,7 +45944,7 @@
         <v>10.5297</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -44109,7 +45967,7 @@
         <v>7.0290999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -44138,7 +45996,7 @@
         <v>8.2836499999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
   </sheetData>

--- a/short video_NewQoE (version 1).xlsx
+++ b/short video_NewQoE (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Short_clip_journal\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C3F3A-BF71-4CCE-8BB7-65E5A12B8477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF62A4CC-4D71-4893-977F-D20B7D981649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="8" activeTab="8" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
@@ -37294,7 +37294,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37705,7 +37705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D8CC03-0E86-44F0-A740-C588AFD08406}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -39497,7 +39497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4706586-4F9F-48D7-8E87-8605D42303F3}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -45311,10 +45311,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F4C8AE-CA13-459B-9D21-028ECDE81F3D}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45331,7 +45331,7 @@
     <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -45357,7 +45357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -45379,8 +45379,14 @@
       <c r="J2">
         <v>136.189966</v>
       </c>
+      <c r="K2">
+        <v>101.928506</v>
+      </c>
+      <c r="L2">
+        <v>23.814730487999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -45402,8 +45408,11 @@
       <c r="J3">
         <v>78.416080600000001</v>
       </c>
+      <c r="K3">
+        <v>65.930999999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -45425,8 +45434,14 @@
       <c r="J4">
         <v>56.050970549999903</v>
       </c>
+      <c r="K4">
+        <v>48.54</v>
+      </c>
+      <c r="L4">
+        <v>16.07</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -45448,8 +45463,14 @@
       <c r="J5">
         <v>75.227871099999902</v>
       </c>
+      <c r="K5">
+        <v>56.16</v>
+      </c>
+      <c r="L5">
+        <v>19.05</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -45477,52 +45498,52 @@
         <f>AVERAGE(J2:J5)</f>
         <v>86.471222062499947</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>5</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>59.721742089999999</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>61.596107050000001</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>74.396032140000003</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>67.886529049999993</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>77.496265640000004</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>86.471222060000002</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L7" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
         <v>119</v>
-      </c>
-      <c r="M7">
-        <v>146.74199999999999</v>
       </c>
       <c r="N7">
         <v>146.74199999999999</v>
       </c>
       <c r="O7">
+        <v>146.74199999999999</v>
+      </c>
+      <c r="P7">
         <v>96.154600000000002</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>102.79736250000001</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>100.83647499999999</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>111.00048750000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -45544,29 +45565,29 @@
       <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>120</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>47.037977249999997</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>46.024807000000003</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>5.5343542499999998</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>12.052187</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>7.62244425</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>8.7814137500000005</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -45588,29 +45609,29 @@
       <c r="J9">
         <v>142.44489999999999</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>117</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>11.5200125</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>12.6142875</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>9.2386874999999993</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>8.2836499999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -45633,7 +45654,7 @@
         <v>106.9199</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -45656,7 +45677,7 @@
         <v>85.025350000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -45679,7 +45700,7 @@
         <v>109.61179999999899</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -45708,7 +45729,7 @@
         <v>111.00048749999975</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -45731,7 +45752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
